--- a/StructureDefinition-MinimalObservation.xlsx
+++ b/StructureDefinition-MinimalObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T10:41:35+00:00</t>
+    <t>2024-09-18T11:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MinimalObservation.xlsx
+++ b/StructureDefinition-MinimalObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T11:11:15+00:00</t>
+    <t>2024-10-31T11:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1306,7 +1306,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/StructureDefinition-MinimalObservation.xlsx
+++ b/StructureDefinition-MinimalObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:37+00:00</t>
+    <t>2024-10-31T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MinimalObservation.xlsx
+++ b/StructureDefinition-MinimalObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:58+00:00</t>
+    <t>2024-12-02T15:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MinimalObservation.xlsx
+++ b/StructureDefinition-MinimalObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:35:52+00:00</t>
+    <t>2025-02-09T15:43:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MinimalObservation.xlsx
+++ b/StructureDefinition-MinimalObservation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-09T15:43:55+00:00</t>
+    <t>2025-04-28T11:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
